--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_30.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_30.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_0</t>
+          <t>model_1_30_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9929615796923631</v>
+        <v>0.9034892178400565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7210285784391892</v>
+        <v>0.6931657337851049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7133064408624216</v>
+        <v>0.7030131316048468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9907103017464357</v>
+        <v>0.4621137827772223</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02953874435444166</v>
+        <v>0.4050351068941634</v>
       </c>
       <c r="G2" t="n">
-        <v>1.865483180522423</v>
+        <v>2.051802151020888</v>
       </c>
       <c r="H2" t="n">
-        <v>1.025486237587436</v>
+        <v>1.062304807961417</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03686042217080922</v>
+        <v>1.246946067391931</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3456079984391209</v>
+        <v>2.342664902104727</v>
       </c>
       <c r="K2" t="n">
-        <v>0.17186839254046</v>
+        <v>0.6364236850512113</v>
       </c>
       <c r="L2" t="n">
-        <v>1.004120050911787</v>
+        <v>0.6691058897373368</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1791851858275267</v>
+        <v>0.6635175589024881</v>
       </c>
       <c r="N2" t="n">
-        <v>137.0441050188049</v>
+        <v>35.80756306388624</v>
       </c>
       <c r="O2" t="n">
-        <v>216.271033635238</v>
+        <v>56.52845208664565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_1</t>
+          <t>model_1_30_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9929674656929995</v>
+        <v>0.9034904607340994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7206835256775597</v>
+        <v>0.6930309242538595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7134281388577445</v>
+        <v>0.7034229413988149</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9901833483422713</v>
+        <v>0.4643332182537216</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02951404206891838</v>
+        <v>0.4050298907337481</v>
       </c>
       <c r="G3" t="n">
-        <v>1.867790549928262</v>
+        <v>2.052703622977067</v>
       </c>
       <c r="H3" t="n">
-        <v>1.025050930914621</v>
+        <v>1.060838942090531</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03895131085326919</v>
+        <v>1.241800896813773</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3451318992858832</v>
+        <v>2.34257732456448</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1717965135528611</v>
+        <v>0.6364195870129612</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004116605448</v>
+        <v>0.669110151088341</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1791102468026156</v>
+        <v>0.6635132864022656</v>
       </c>
       <c r="N3" t="n">
-        <v>137.0457782531066</v>
+        <v>35.80758882063628</v>
       </c>
       <c r="O3" t="n">
-        <v>216.2727068695397</v>
+        <v>56.52847784339569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_2</t>
+          <t>model_1_30_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9929664052027788</v>
+        <v>0.9034731213135847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.72033991304678</v>
+        <v>0.6926055050498952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7135377983305398</v>
+        <v>0.7046427293431679</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9896307193801736</v>
+        <v>0.4710578697077201</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02951849271951211</v>
+        <v>0.405102660572356</v>
       </c>
       <c r="G4" t="n">
-        <v>1.870088289172477</v>
+        <v>2.055548403152851</v>
       </c>
       <c r="H4" t="n">
-        <v>1.024658685338854</v>
+        <v>1.056475831340949</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04114407710796668</v>
+        <v>1.226211581793879</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3446414629189741</v>
+        <v>2.342315642372987</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1718094663268358</v>
+        <v>0.6364767557203923</v>
       </c>
       <c r="L4" t="n">
-        <v>1.004117226222764</v>
+        <v>0.6690507016465761</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1791237510029944</v>
+        <v>0.6635728888999276</v>
       </c>
       <c r="N4" t="n">
-        <v>137.0454766803811</v>
+        <v>35.80722952220451</v>
       </c>
       <c r="O4" t="n">
-        <v>216.2724052968142</v>
+        <v>56.52811854496392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_3</t>
+          <t>model_1_30_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9929586573755701</v>
+        <v>0.9034430933514066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7199979419779541</v>
+        <v>0.6923894177578864</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7136365387578962</v>
+        <v>0.7054468679680868</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9890537037333051</v>
+        <v>0.4755961243082724</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02955100869287252</v>
+        <v>0.4052286815059595</v>
       </c>
       <c r="G5" t="n">
-        <v>1.872375051284348</v>
+        <v>2.056993379869505</v>
       </c>
       <c r="H5" t="n">
-        <v>1.024305496555499</v>
+        <v>1.05359947410625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04343360683887826</v>
+        <v>1.215690846095909</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3441376393783429</v>
+        <v>2.342138998455118</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1719040682848214</v>
+        <v>0.6365757468722474</v>
       </c>
       <c r="L5" t="n">
-        <v>1.004121761536252</v>
+        <v>0.6689477486333941</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1792223803621845</v>
+        <v>0.663676094310057</v>
       </c>
       <c r="N5" t="n">
-        <v>137.04327480118</v>
+        <v>35.80660745106854</v>
       </c>
       <c r="O5" t="n">
-        <v>216.2702034176131</v>
+        <v>56.52749647382795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_4</t>
+          <t>model_1_30_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.992944561871157</v>
+        <v>0.9034221706456368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.719657588276356</v>
+        <v>0.6922293981063898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7137239856755559</v>
+        <v>0.7058457866783134</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9884539161784344</v>
+        <v>0.4778813831234137</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0296101645095483</v>
+        <v>0.4053164896262372</v>
       </c>
       <c r="G6" t="n">
-        <v>1.874650998054119</v>
+        <v>2.058063432015885</v>
       </c>
       <c r="H6" t="n">
-        <v>1.023992704001494</v>
+        <v>1.052172565010406</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04581349280308063</v>
+        <v>1.210393081622177</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3436206052118687</v>
+        <v>2.342050169171882</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1720760428111604</v>
+        <v>0.6366447122424227</v>
       </c>
       <c r="L6" t="n">
-        <v>1.004130012563225</v>
+        <v>0.6688760136421833</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1794016762001461</v>
+        <v>0.6637479956788187</v>
       </c>
       <c r="N6" t="n">
-        <v>137.0392751620121</v>
+        <v>35.80617412237201</v>
       </c>
       <c r="O6" t="n">
-        <v>216.2662037784451</v>
+        <v>56.52706314513141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_5</t>
+          <t>model_1_30_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9929242710286279</v>
+        <v>0.9033971953824415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7193187715690689</v>
+        <v>0.6920719823212951</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7138012775514445</v>
+        <v>0.7062427142922922</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9878318379818011</v>
+        <v>0.4801773296393994</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0296953208349741</v>
+        <v>0.4054213054630966</v>
       </c>
       <c r="G7" t="n">
-        <v>1.876916666935855</v>
+        <v>2.059116072095647</v>
       </c>
       <c r="H7" t="n">
-        <v>1.02371623544308</v>
+        <v>1.050752777950389</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04828182539314725</v>
+        <v>1.205070540557948</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3430967611901181</v>
+        <v>2.341960571441957</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1723233032267374</v>
+        <v>0.6367270258620225</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004141890129584</v>
+        <v>0.6687903841683707</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1796594630035139</v>
+        <v>0.6638338135596175</v>
       </c>
       <c r="N7" t="n">
-        <v>137.0335315864588</v>
+        <v>35.8056569843376</v>
       </c>
       <c r="O7" t="n">
-        <v>216.2604602028918</v>
+        <v>56.526546007097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_6</t>
+          <t>model_1_30_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9928981418417407</v>
+        <v>0.9029709640300594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7189817288831268</v>
+        <v>0.6904406838014256</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7138685901242741</v>
+        <v>0.7096929986436105</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9871891194058386</v>
+        <v>0.5013132387811992</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02980497944271752</v>
+        <v>0.4072101072685528</v>
       </c>
       <c r="G8" t="n">
-        <v>1.879170472928688</v>
+        <v>2.070024572809452</v>
       </c>
       <c r="H8" t="n">
-        <v>1.023475462273076</v>
+        <v>1.038411310884705</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0508320565632401</v>
+        <v>1.156072559309798</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3425595020432161</v>
+        <v>2.341163028283155</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1726411869824739</v>
+        <v>0.6381301648320292</v>
       </c>
       <c r="L8" t="n">
-        <v>1.004157185263371</v>
+        <v>0.6673290195316322</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1799908797288421</v>
+        <v>0.6652966870604755</v>
       </c>
       <c r="N8" t="n">
-        <v>137.0261596080729</v>
+        <v>35.79685198533489</v>
       </c>
       <c r="O8" t="n">
-        <v>216.2530882245059</v>
+        <v>56.5177410080943</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_7</t>
+          <t>model_1_30_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9928663504629154</v>
+        <v>0.9028989799303526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7186465445393906</v>
+        <v>0.6903560913957836</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7139267205041803</v>
+        <v>0.7100603308853018</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9865267009339633</v>
+        <v>0.5037126118925155</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02993840105875522</v>
+        <v>0.4075122091360012</v>
       </c>
       <c r="G9" t="n">
-        <v>1.881411852178634</v>
+        <v>2.070590242615494</v>
       </c>
       <c r="H9" t="n">
-        <v>1.023267533274745</v>
+        <v>1.037097384755322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0534604545865774</v>
+        <v>1.150510251205289</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3420073562989165</v>
+        <v>2.34107596251544</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1730271685567189</v>
+        <v>0.6383668296019156</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004175794850976</v>
+        <v>0.6670822169040662</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1803932933377948</v>
+        <v>0.6655434271395796</v>
       </c>
       <c r="N9" t="n">
-        <v>137.0172266125359</v>
+        <v>35.7953687713602</v>
       </c>
       <c r="O9" t="n">
-        <v>216.2441552289689</v>
+        <v>56.51625779411961</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_8</t>
+          <t>model_1_30_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9928292335735461</v>
+        <v>0.9019910162677409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7183130746635205</v>
+        <v>0.6878835649180055</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7139752540622338</v>
+        <v>0.7131783368890316</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9858457735951248</v>
+        <v>0.5257442434075572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03009417270329924</v>
+        <v>0.4113227383940943</v>
       </c>
       <c r="G10" t="n">
-        <v>1.883641766774065</v>
+        <v>2.087124038557333</v>
       </c>
       <c r="H10" t="n">
-        <v>1.023093931551725</v>
+        <v>1.025944458072356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05616229360138073</v>
+        <v>1.099435775979368</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3414468822083462</v>
+        <v>2.340327509504329</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1734767209261786</v>
+        <v>0.6413444771681552</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004197521810607</v>
+        <v>0.6639691986322547</v>
       </c>
       <c r="M10" t="n">
-        <v>0.180861984082324</v>
+        <v>0.6686478393272942</v>
       </c>
       <c r="N10" t="n">
-        <v>137.0068474477337</v>
+        <v>35.77675424213494</v>
       </c>
       <c r="O10" t="n">
-        <v>216.2337760641667</v>
+        <v>56.49764326489435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_9</t>
+          <t>model_1_30_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.992786834211426</v>
+        <v>0.9015724373709271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7179814281481904</v>
+        <v>0.6871884879663152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7140154501396091</v>
+        <v>0.7141278836849987</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9851468700399293</v>
+        <v>0.5332532453739951</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0302721137559385</v>
+        <v>0.4130794244805638</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88585948854917</v>
+        <v>2.091772021333822</v>
       </c>
       <c r="H11" t="n">
-        <v>1.022950152513656</v>
+        <v>1.022547984241069</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0589354601131461</v>
+        <v>1.082028153005809</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3408768276169289</v>
+        <v>2.340096851829825</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1739888322736218</v>
+        <v>0.6427125519861611</v>
       </c>
       <c r="L11" t="n">
-        <v>1.004222340949409</v>
+        <v>0.6625340709860357</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1813958970700446</v>
+        <v>0.6700741559226079</v>
       </c>
       <c r="N11" t="n">
-        <v>136.9950566566516</v>
+        <v>35.76823078683912</v>
       </c>
       <c r="O11" t="n">
-        <v>216.2219852730846</v>
+        <v>56.48911980959853</v>
       </c>
     </row>
   </sheetData>
